--- a/xlsx/美国各州面积列表_intext.xlsx
+++ b/xlsx/美国各州面积列表_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>美国各州面积列表</t>
   </si>
@@ -371,27 +371,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%92%8C%E9%A0%98%E5%9C%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份和領地列表</t>
+    <t>美国州份和领地列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B8%BD%E9%9D%A2%E7%A9%8D%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%B7%9E%E5%88%A5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>依總面積排列的美國州別列表</t>
+    <t>依总面积排列的美国州别列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州首府列表</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/List_of_governors%27_residences_in_the_United_States</t>
   </si>
   <si>
@@ -401,25 +398,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州州議會大廈列表</t>
+    <t>美国各州州议会大厦列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%AF%E9%82%A6%E9%A0%86%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份依加入聯邦順序排列列表</t>
+    <t>美国州份依加入联邦顺序排列列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%9C%80%E5%A4%A7%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州最大城市列表</t>
+    <t>美国各州最大城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%90%8D%E7%A8%B1%E8%A9%9E%E6%BA%90</t>
   </si>
   <si>
-    <t>美國各州名稱詞源</t>
+    <t>美国各州名称词源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
@@ -431,37 +428,34 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%9D%87%E7%94%9F%E7%94%A2%E7%B8%BD%E9%A1%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人均生產總額列表</t>
+    <t>美国各州人均生产总额列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人口列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份人口密度列表</t>
+    <t>美国州份人口密度列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E9%83%B5%E6%94%BF%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份郵政縮寫列表</t>
+    <t>美国州份邮政缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%99%82%E5%8D%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州時區列表</t>
+    <t>美国各州时区列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -2613,7 +2607,7 @@
         <v>123</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2639,10 +2633,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2668,10 +2662,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2697,10 +2691,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2726,10 +2720,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2755,10 +2749,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2784,10 +2778,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2813,10 +2807,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2842,10 +2836,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -2871,10 +2865,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2900,10 +2894,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2929,10 +2923,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2958,10 +2952,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -2987,10 +2981,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3016,10 +3010,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
